--- a/data/unchecked/manual_collect/china/shanghai/shanghaiCaseStatistics_20200317.xlsx
+++ b/data/unchecked/manual_collect/china/shanghai/shanghaiCaseStatistics_20200317.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\STUDY\lab\疫情可视化\每日数据更新\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05672033-C4BE-4898-AA7F-E7416375FECD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0899B9DE-44F5-4769-818C-4E1333646511}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -399,7 +399,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9452" uniqueCount="3346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9462" uniqueCount="3346">
   <si>
     <t>统计级别</t>
   </si>
@@ -12278,10 +12278,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AN28"/>
+  <dimension ref="A1:AN29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AC20" sqref="AC20:AC28"/>
+    <sheetView tabSelected="1" topLeftCell="D16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.921875" defaultRowHeight="16.5"/>
@@ -13491,11 +13491,8 @@
       <c r="G21" s="13" t="s">
         <v>3307</v>
       </c>
-      <c r="H21" s="13" t="s">
-        <v>3332</v>
-      </c>
       <c r="M21" s="13">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="S21" s="13" t="s">
         <v>3289</v>
@@ -13524,7 +13521,7 @@
     </row>
     <row r="22" spans="1:29">
       <c r="A22" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="13" t="s">
         <v>3337</v>
@@ -13545,13 +13542,10 @@
         <v>3307</v>
       </c>
       <c r="H22" s="13" t="s">
-        <v>3329</v>
-      </c>
-      <c r="I22" s="13">
-        <v>1</v>
+        <v>3332</v>
       </c>
       <c r="M22" s="13">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S22" s="13" t="s">
         <v>3289</v>
@@ -13560,7 +13554,7 @@
         <v>43908.350694444445</v>
       </c>
       <c r="U22" s="19" t="s">
-        <v>3339</v>
+        <v>3338</v>
       </c>
       <c r="V22" s="20" t="s">
         <v>3327</v>
@@ -13580,7 +13574,7 @@
     </row>
     <row r="23" spans="1:29">
       <c r="A23" s="12">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="13" t="s">
         <v>3337</v>
@@ -13601,7 +13595,7 @@
         <v>3307</v>
       </c>
       <c r="H23" s="13" t="s">
-        <v>3330</v>
+        <v>3329</v>
       </c>
       <c r="I23" s="13">
         <v>1</v>
@@ -13616,7 +13610,7 @@
         <v>43908.350694444445</v>
       </c>
       <c r="U23" s="19" t="s">
-        <v>3340</v>
+        <v>3339</v>
       </c>
       <c r="V23" s="20" t="s">
         <v>3327</v>
@@ -13636,7 +13630,7 @@
     </row>
     <row r="24" spans="1:29">
       <c r="A24" s="12">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="13" t="s">
         <v>3337</v>
@@ -13657,13 +13651,13 @@
         <v>3307</v>
       </c>
       <c r="H24" s="13" t="s">
-        <v>3331</v>
+        <v>3330</v>
       </c>
       <c r="I24" s="13">
         <v>1</v>
       </c>
       <c r="M24" s="13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S24" s="13" t="s">
         <v>3289</v>
@@ -13672,7 +13666,7 @@
         <v>43908.350694444445</v>
       </c>
       <c r="U24" s="19" t="s">
-        <v>3341</v>
+        <v>3340</v>
       </c>
       <c r="V24" s="20" t="s">
         <v>3327</v>
@@ -13692,7 +13686,7 @@
     </row>
     <row r="25" spans="1:29">
       <c r="A25" s="12">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="13" t="s">
         <v>3337</v>
@@ -13713,10 +13707,13 @@
         <v>3307</v>
       </c>
       <c r="H25" s="13" t="s">
-        <v>3333</v>
+        <v>3331</v>
+      </c>
+      <c r="I25" s="13">
+        <v>1</v>
       </c>
       <c r="M25" s="13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S25" s="13" t="s">
         <v>3289</v>
@@ -13725,7 +13722,7 @@
         <v>43908.350694444445</v>
       </c>
       <c r="U25" s="19" t="s">
-        <v>3342</v>
+        <v>3341</v>
       </c>
       <c r="V25" s="20" t="s">
         <v>3327</v>
@@ -13745,7 +13742,7 @@
     </row>
     <row r="26" spans="1:29">
       <c r="A26" s="12">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" s="13" t="s">
         <v>3337</v>
@@ -13766,10 +13763,10 @@
         <v>3307</v>
       </c>
       <c r="H26" s="13" t="s">
-        <v>3334</v>
+        <v>3333</v>
       </c>
       <c r="M26" s="13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S26" s="13" t="s">
         <v>3289</v>
@@ -13778,7 +13775,7 @@
         <v>43908.350694444445</v>
       </c>
       <c r="U26" s="19" t="s">
-        <v>3343</v>
+        <v>3342</v>
       </c>
       <c r="V26" s="20" t="s">
         <v>3327</v>
@@ -13798,7 +13795,7 @@
     </row>
     <row r="27" spans="1:29">
       <c r="A27" s="12">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" s="13" t="s">
         <v>3337</v>
@@ -13819,10 +13816,10 @@
         <v>3307</v>
       </c>
       <c r="H27" s="13" t="s">
-        <v>3335</v>
+        <v>3334</v>
       </c>
       <c r="M27" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S27" s="13" t="s">
         <v>3289</v>
@@ -13831,7 +13828,7 @@
         <v>43908.350694444445</v>
       </c>
       <c r="U27" s="19" t="s">
-        <v>3344</v>
+        <v>3343</v>
       </c>
       <c r="V27" s="20" t="s">
         <v>3327</v>
@@ -13851,7 +13848,7 @@
     </row>
     <row r="28" spans="1:29">
       <c r="A28" s="12">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" s="13" t="s">
         <v>3337</v>
@@ -13872,7 +13869,7 @@
         <v>3307</v>
       </c>
       <c r="H28" s="13" t="s">
-        <v>3336</v>
+        <v>3335</v>
       </c>
       <c r="M28" s="13">
         <v>1</v>
@@ -13884,7 +13881,7 @@
         <v>43908.350694444445</v>
       </c>
       <c r="U28" s="19" t="s">
-        <v>3345</v>
+        <v>3344</v>
       </c>
       <c r="V28" s="20" t="s">
         <v>3327</v>
@@ -13899,6 +13896,59 @@
         <v>3291</v>
       </c>
       <c r="AC28" s="13" t="s">
+        <v>3292</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29">
+      <c r="A29" s="12">
+        <v>27</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>3337</v>
+      </c>
+      <c r="C29" s="14">
+        <v>43907</v>
+      </c>
+      <c r="D29" s="14">
+        <v>43908</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>3285</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G29" s="13" t="s">
+        <v>3307</v>
+      </c>
+      <c r="H29" s="13" t="s">
+        <v>3336</v>
+      </c>
+      <c r="M29" s="13">
+        <v>1</v>
+      </c>
+      <c r="S29" s="13" t="s">
+        <v>3289</v>
+      </c>
+      <c r="T29" s="15">
+        <v>43908.350694444445</v>
+      </c>
+      <c r="U29" s="19" t="s">
+        <v>3345</v>
+      </c>
+      <c r="V29" s="20" t="s">
+        <v>3327</v>
+      </c>
+      <c r="Z29" s="15">
+        <v>43908.425694386577</v>
+      </c>
+      <c r="AA29" s="13" t="s">
+        <v>3290</v>
+      </c>
+      <c r="AB29" s="13" t="s">
+        <v>3291</v>
+      </c>
+      <c r="AC29" s="13" t="s">
         <v>3292</v>
       </c>
     </row>
@@ -13911,13 +13961,13 @@
     <dataValidation type="whole" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:R1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE2:AE1048576 AK2:AK1048576 AA2:AA1048576" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA2:AA1048576 AK2:AK1048576 AE2:AE1048576" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"手动,自动"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC2:AC1048576" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"未核查,已核查"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG2:AG1048576 AM2:AM1048576" xr:uid="{00000000-0002-0000-0000-000004000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM2:AM1048576 AG2:AG1048576" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>"核查通过,核查未通过"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576" xr:uid="{00000000-0002-0000-0000-000005000000}">
@@ -13947,17 +13997,18 @@
     <hyperlink ref="V15" r:id="rId17" xr:uid="{C2835B1F-F448-4BBC-A648-564C2D0AA7FB}"/>
     <hyperlink ref="V17" r:id="rId18" xr:uid="{872D852C-ED60-427F-922F-F96730BDCC7D}"/>
     <hyperlink ref="V19" r:id="rId19" xr:uid="{6DCB69BE-5342-4AB4-A66A-F576E4CDAF6A}"/>
-    <hyperlink ref="V22" r:id="rId20" xr:uid="{D6601572-9C9D-4984-8869-B76397AB958A}"/>
-    <hyperlink ref="V24" r:id="rId21" xr:uid="{40E01B5C-B825-43BB-BC20-95692523EAE5}"/>
-    <hyperlink ref="V26" r:id="rId22" xr:uid="{6F4F8AFA-1320-4E46-9C0D-99A43F85962F}"/>
-    <hyperlink ref="V28" r:id="rId23" xr:uid="{54FFF8B0-D6C0-4EBD-8ED3-8E23B9BFA6A5}"/>
-    <hyperlink ref="V21" r:id="rId24" xr:uid="{3B2624BE-7C0B-48D5-99EC-0129539CFFF9}"/>
-    <hyperlink ref="V23" r:id="rId25" xr:uid="{E4771916-A99D-42EF-99A8-3001302FBC19}"/>
-    <hyperlink ref="V25" r:id="rId26" xr:uid="{9FC63F45-A7D8-4E65-9665-8854E257E044}"/>
-    <hyperlink ref="V27" r:id="rId27" xr:uid="{D0C005C0-D259-45A0-AB84-A6DC886D6CCD}"/>
+    <hyperlink ref="V23" r:id="rId20" xr:uid="{D6601572-9C9D-4984-8869-B76397AB958A}"/>
+    <hyperlink ref="V25" r:id="rId21" xr:uid="{40E01B5C-B825-43BB-BC20-95692523EAE5}"/>
+    <hyperlink ref="V27" r:id="rId22" xr:uid="{6F4F8AFA-1320-4E46-9C0D-99A43F85962F}"/>
+    <hyperlink ref="V29" r:id="rId23" xr:uid="{54FFF8B0-D6C0-4EBD-8ED3-8E23B9BFA6A5}"/>
+    <hyperlink ref="V22" r:id="rId24" xr:uid="{3B2624BE-7C0B-48D5-99EC-0129539CFFF9}"/>
+    <hyperlink ref="V24" r:id="rId25" xr:uid="{E4771916-A99D-42EF-99A8-3001302FBC19}"/>
+    <hyperlink ref="V26" r:id="rId26" xr:uid="{9FC63F45-A7D8-4E65-9665-8854E257E044}"/>
+    <hyperlink ref="V28" r:id="rId27" xr:uid="{D0C005C0-D259-45A0-AB84-A6DC886D6CCD}"/>
+    <hyperlink ref="V21" r:id="rId28" xr:uid="{59D4987E-0A85-443C-BF98-B25EA590B80E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId28"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId29"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">

--- a/data/unchecked/manual_collect/china/shanghai/shanghaiCaseStatistics_20200317.xlsx
+++ b/data/unchecked/manual_collect/china/shanghai/shanghaiCaseStatistics_20200317.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\STUDY\lab\疫情可视化\每日数据更新\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0899B9DE-44F5-4769-818C-4E1333646511}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F69611D-8E5D-40F2-A75C-FD3EDA0A43B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12280,8 +12280,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+    <sheetView tabSelected="1" topLeftCell="E10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.921875" defaultRowHeight="16.5"/>
@@ -13490,6 +13490,9 @@
       </c>
       <c r="G21" s="13" t="s">
         <v>3307</v>
+      </c>
+      <c r="I21" s="13">
+        <v>3</v>
       </c>
       <c r="M21" s="13">
         <v>23</v>
